--- a/09_BienesAmbientalesYServiciosPublicos/P0907/P0907.xlsx
+++ b/09_BienesAmbientalesYServiciosPublicos/P0907/P0907.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="1321">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -3884,57 +3884,6 @@
     <t>Yucatán</t>
   </si>
   <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>Rodolfo Sánchez Taboada (Maneadero)</t>
-  </si>
-  <si>
-    <t>Nueva Rosita-Cloete</t>
-  </si>
-  <si>
-    <t>Nuevo Necaxa-Tenango</t>
-  </si>
-  <si>
-    <t>Juan José Ríos</t>
-  </si>
-  <si>
-    <t>Gabriel Leyva Solano (Benito Juárez)</t>
-  </si>
-  <si>
-    <t>Esperanza</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Miguel Alemán (La Doce)</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -4019,13 +3968,13 @@
     <t>31</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
   </si>
   <si>
     <t>25</t>
@@ -4225,10 +4174,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11</c:v>
@@ -4598,14 +4547,14 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4613,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="E2" s="3">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4627,10 +4576,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="E3" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4641,7 +4590,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="E4" s="3">
         <v>11</v>
@@ -22359,7 +22308,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23487,10 +23436,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>1265</v>
+        <v>848</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -23507,50 +23456,50 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>848</v>
+        <v>968</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>968</v>
+        <v>1079</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>1079</v>
+        <v>786</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -23567,19 +23516,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>786</v>
+        <v>1219</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -23587,19 +23536,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>1284</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>985</v>
+        <v>1220</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -23607,19 +23556,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>1285</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>1293</v>
+        <v>793</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -23627,19 +23576,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>1219</v>
+        <v>812</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -23647,19 +23596,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -23667,19 +23616,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>793</v>
+        <v>852</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -23687,19 +23636,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>1286</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>1294</v>
+        <v>853</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -23707,19 +23656,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -23727,10 +23676,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>812</v>
+        <v>867</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -23742,24 +23691,24 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -23767,39 +23716,39 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>852</v>
+        <v>991</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>853</v>
+        <v>994</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -23807,10 +23756,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>860</v>
+        <v>1037</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -23827,39 +23776,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>867</v>
+        <v>1246</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>1241</v>
+        <v>1063</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -23867,30 +23816,30 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>991</v>
+        <v>1248</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>994</v>
+        <v>1256</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -23907,10 +23856,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>1037</v>
+        <v>1111</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -23927,19 +23876,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>1246</v>
+        <v>1127</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -23947,19 +23896,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>1063</v>
+        <v>1188</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -23967,19 +23916,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
-        <v>1287</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -23987,10 +23936,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>1248</v>
+        <v>1216</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -24007,19 +23956,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
-        <v>1288</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>1296</v>
+        <v>791</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -24027,10 +23976,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -24047,10 +23996,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>1098</v>
+        <v>1222</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -24067,13 +24016,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
-        <v>1289</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>1297</v>
+        <v>804</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -24087,39 +24036,39 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>1256</v>
+        <v>816</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>1290</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>1298</v>
+        <v>818</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -24127,19 +24076,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>1111</v>
+        <v>811</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -24147,59 +24096,59 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>1127</v>
+        <v>824</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>1188</v>
+        <v>825</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>1264</v>
+        <v>827</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -24207,19 +24156,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -24227,10 +24176,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -24247,10 +24196,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>1221</v>
+        <v>847</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -24267,10 +24216,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
-        <v>1222</v>
+        <v>850</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -24287,10 +24236,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>816</v>
+        <v>1229</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -24302,15 +24251,15 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>818</v>
+        <v>858</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -24322,15 +24271,15 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>811</v>
+        <v>863</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -24347,10 +24296,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -24362,15 +24311,15 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>825</v>
+        <v>1233</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -24382,15 +24331,15 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>827</v>
+        <v>870</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -24407,10 +24356,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>1228</v>
+        <v>887</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -24427,10 +24376,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>846</v>
+        <v>1237</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -24447,10 +24396,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -24467,10 +24416,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>850</v>
+        <v>897</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -24487,10 +24436,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>1229</v>
+        <v>1238</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -24507,10 +24456,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>858</v>
+        <v>1239</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -24522,15 +24471,15 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>863</v>
+        <v>987</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -24547,10 +24496,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
-        <v>868</v>
+        <v>1242</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -24562,15 +24511,15 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>1233</v>
+        <v>992</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -24587,10 +24536,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
-        <v>870</v>
+        <v>1019</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -24607,10 +24556,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>887</v>
+        <v>1025</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -24627,10 +24576,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>1237</v>
+        <v>1026</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -24647,10 +24596,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>892</v>
+        <v>1056</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -24667,10 +24616,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>897</v>
+        <v>1085</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -24687,10 +24636,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>1238</v>
+        <v>1086</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -24702,15 +24651,15 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -24727,10 +24676,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>987</v>
+        <v>1091</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -24747,10 +24696,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>1242</v>
+        <v>1092</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -24762,15 +24711,15 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>992</v>
+        <v>1252</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -24787,10 +24736,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>1019</v>
+        <v>1253</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -24807,10 +24756,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>1025</v>
+        <v>1098</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -24827,10 +24776,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>1026</v>
+        <v>1099</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -24847,10 +24796,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>1056</v>
+        <v>1254</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -24867,10 +24816,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -24887,10 +24836,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>1086</v>
+        <v>1255</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -24907,10 +24856,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>1249</v>
+        <v>1106</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -24927,10 +24876,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -24947,10 +24896,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B130" t="s">
-        <v>1092</v>
+        <v>1257</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -24962,15 +24911,15 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>1253</v>
+        <v>1109</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -24987,13 +24936,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
-        <v>1291</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
-        <v>1299</v>
+        <v>1110</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -25007,10 +24956,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
-        <v>1099</v>
+        <v>1259</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -25027,10 +24976,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -25047,10 +24996,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>1101</v>
+        <v>1201</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -25062,207 +25011,27 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -25272,7 +25041,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G499"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25306,7 +25075,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C2" t="s">
         <v>338</v>
@@ -25329,7 +25098,7 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C3" t="s">
         <v>339</v>
@@ -25352,7 +25121,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C4" t="s">
         <v>340</v>
@@ -25375,7 +25144,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C5" t="s">
         <v>343</v>
@@ -25398,7 +25167,7 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C6" t="s">
         <v>344</v>
@@ -25421,7 +25190,7 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>
@@ -25444,7 +25213,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C8" t="s">
         <v>342</v>
@@ -25467,7 +25236,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C9" t="s">
         <v>354</v>
@@ -25490,7 +25259,7 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C10" t="s">
         <v>361</v>
@@ -25513,7 +25282,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="C11" t="s">
         <v>401</v>
@@ -25536,7 +25305,7 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="C12" t="s">
         <v>402</v>
@@ -25559,7 +25328,7 @@
         <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C13" t="s">
         <v>351</v>
@@ -25582,7 +25351,7 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C14" t="s">
         <v>358</v>
@@ -25605,7 +25374,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C15" t="s">
         <v>360</v>
@@ -25628,7 +25397,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C16" t="s">
         <v>352</v>
@@ -25651,7 +25420,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C17" t="s">
         <v>353</v>
@@ -25674,7 +25443,7 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C18" t="s">
         <v>355</v>
@@ -25697,7 +25466,7 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C19" t="s">
         <v>356</v>
@@ -25720,7 +25489,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C20" t="s">
         <v>357</v>
@@ -25743,7 +25512,7 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C21" t="s">
         <v>363</v>
@@ -25766,7 +25535,7 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C22" t="s">
         <v>364</v>
@@ -25789,7 +25558,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C23" t="s">
         <v>365</v>
@@ -25812,7 +25581,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C24" t="s">
         <v>366</v>
@@ -25835,7 +25604,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C25" t="s">
         <v>369</v>
@@ -25858,7 +25627,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C26" t="s">
         <v>362</v>
@@ -25881,7 +25650,7 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C27" t="s">
         <v>368</v>
@@ -25904,7 +25673,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C28" t="s">
         <v>370</v>
@@ -25927,7 +25696,7 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C29" t="s">
         <v>372</v>
@@ -25950,7 +25719,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C30" t="s">
         <v>375</v>
@@ -25973,7 +25742,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C31" t="s">
         <v>382</v>
@@ -25996,7 +25765,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C32" t="s">
         <v>376</v>
@@ -26019,7 +25788,7 @@
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C33" t="s">
         <v>377</v>
@@ -26042,7 +25811,7 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C34" t="s">
         <v>379</v>
@@ -26065,7 +25834,7 @@
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C35" t="s">
         <v>384</v>
@@ -26088,7 +25857,7 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C36" t="s">
         <v>385</v>
@@ -26111,7 +25880,7 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C37" t="s">
         <v>386</v>
@@ -26134,7 +25903,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C38" t="s">
         <v>387</v>
@@ -26157,7 +25926,7 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -26180,7 +25949,7 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -26203,7 +25972,7 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C41" t="s">
         <v>390</v>
@@ -26226,7 +25995,7 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C42" t="s">
         <v>391</v>
@@ -26249,7 +26018,7 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C43" t="s">
         <v>392</v>
@@ -26272,7 +26041,7 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C44" t="s">
         <v>393</v>
@@ -26295,7 +26064,7 @@
         <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C45" t="s">
         <v>394</v>
@@ -26318,7 +26087,7 @@
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C46" t="s">
         <v>395</v>
@@ -26341,7 +26110,7 @@
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C47" t="s">
         <v>396</v>
@@ -26364,7 +26133,7 @@
         <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C48" t="s">
         <v>397</v>
@@ -26387,7 +26156,7 @@
         <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C49" t="s">
         <v>398</v>
@@ -26410,7 +26179,7 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C50" t="s">
         <v>399</v>
@@ -26433,7 +26202,7 @@
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C51" t="s">
         <v>437</v>
@@ -26456,7 +26225,7 @@
         <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C52" t="s">
         <v>459</v>
@@ -26479,7 +26248,7 @@
         <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C53" t="s">
         <v>462</v>
@@ -26502,7 +26271,7 @@
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C54" t="s">
         <v>463</v>
@@ -26525,7 +26294,7 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C55" t="s">
         <v>464</v>
@@ -26548,7 +26317,7 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C56" t="s">
         <v>466</v>
@@ -26571,7 +26340,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C57" t="s">
         <v>467</v>
@@ -26594,7 +26363,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C58" t="s">
         <v>468</v>
@@ -26617,7 +26386,7 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C59" t="s">
         <v>469</v>
@@ -26640,7 +26409,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C60" t="s">
         <v>472</v>
@@ -26663,7 +26432,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C61" t="s">
         <v>473</v>
@@ -26686,7 +26455,7 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C62" t="s">
         <v>474</v>
@@ -26709,7 +26478,7 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C63" t="s">
         <v>475</v>
@@ -26732,7 +26501,7 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C64" t="s">
         <v>476</v>
@@ -26755,7 +26524,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C65" t="s">
         <v>478</v>
@@ -26778,7 +26547,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C66" t="s">
         <v>479</v>
@@ -26801,7 +26570,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C67" t="s">
         <v>480</v>
@@ -26824,7 +26593,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C68" t="s">
         <v>481</v>
@@ -26847,7 +26616,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C69" t="s">
         <v>482</v>
@@ -26870,7 +26639,7 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C70" t="s">
         <v>483</v>
@@ -26893,7 +26662,7 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C71" t="s">
         <v>484</v>
@@ -26916,7 +26685,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C72" t="s">
         <v>485</v>
@@ -26939,7 +26708,7 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C73" t="s">
         <v>486</v>
@@ -26962,7 +26731,7 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C74" t="s">
         <v>487</v>
@@ -26985,7 +26754,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C75" t="s">
         <v>488</v>
@@ -27008,7 +26777,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C76" t="s">
         <v>490</v>
@@ -27031,7 +26800,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C77" t="s">
         <v>491</v>
@@ -27054,7 +26823,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C78" t="s">
         <v>492</v>
@@ -27077,7 +26846,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C79" t="s">
         <v>494</v>
@@ -27100,7 +26869,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C80" t="s">
         <v>497</v>
@@ -27123,7 +26892,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C81" t="s">
         <v>498</v>
@@ -27146,7 +26915,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C82" t="s">
         <v>499</v>
@@ -27169,7 +26938,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C83" t="s">
         <v>500</v>
@@ -27192,7 +26961,7 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C84" t="s">
         <v>501</v>
@@ -27215,7 +26984,7 @@
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C85" t="s">
         <v>503</v>
@@ -27238,7 +27007,7 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C86" t="s">
         <v>505</v>
@@ -27261,7 +27030,7 @@
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C87" t="s">
         <v>506</v>
@@ -27284,7 +27053,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C88" t="s">
         <v>507</v>
@@ -27307,7 +27076,7 @@
         <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C89" t="s">
         <v>510</v>
@@ -27330,7 +27099,7 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C90" t="s">
         <v>512</v>
@@ -27353,7 +27122,7 @@
         <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C91" t="s">
         <v>513</v>
@@ -27376,7 +27145,7 @@
         <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C92" t="s">
         <v>514</v>
@@ -27399,7 +27168,7 @@
         <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C93" t="s">
         <v>516</v>
@@ -27422,7 +27191,7 @@
         <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C94" t="s">
         <v>517</v>
@@ -27445,7 +27214,7 @@
         <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C95" t="s">
         <v>518</v>
@@ -27468,7 +27237,7 @@
         <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C96" t="s">
         <v>519</v>
@@ -27491,7 +27260,7 @@
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C97" t="s">
         <v>520</v>
@@ -27514,7 +27283,7 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C98" t="s">
         <v>521</v>
@@ -27537,7 +27306,7 @@
         <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C99" t="s">
         <v>522</v>
@@ -27560,7 +27329,7 @@
         <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C100" t="s">
         <v>524</v>
@@ -27583,7 +27352,7 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C101" t="s">
         <v>525</v>
@@ -27606,7 +27375,7 @@
         <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C102" t="s">
         <v>527</v>
@@ -27629,7 +27398,7 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C103" t="s">
         <v>528</v>
@@ -27652,7 +27421,7 @@
         <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C104" t="s">
         <v>530</v>
@@ -27675,7 +27444,7 @@
         <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C105" t="s">
         <v>531</v>
@@ -27698,7 +27467,7 @@
         <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C106" t="s">
         <v>532</v>
@@ -27721,7 +27490,7 @@
         <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C107" t="s">
         <v>535</v>
@@ -27744,7 +27513,7 @@
         <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C108" t="s">
         <v>536</v>
@@ -27767,7 +27536,7 @@
         <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C109" t="s">
         <v>537</v>
@@ -27790,7 +27559,7 @@
         <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C110" t="s">
         <v>538</v>
@@ -27813,7 +27582,7 @@
         <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C111" t="s">
         <v>411</v>
@@ -27836,7 +27605,7 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C112" t="s">
         <v>418</v>
@@ -27859,7 +27628,7 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C113" t="s">
         <v>414</v>
@@ -27882,7 +27651,7 @@
         <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C114" t="s">
         <v>416</v>
@@ -27905,7 +27674,7 @@
         <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C115" t="s">
         <v>412</v>
@@ -27928,7 +27697,7 @@
         <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C116" t="s">
         <v>419</v>
@@ -27951,7 +27720,7 @@
         <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="C117" t="s">
         <v>422</v>
@@ -27974,7 +27743,7 @@
         <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="C118" t="s">
         <v>423</v>
@@ -27997,7 +27766,7 @@
         <v>85</v>
       </c>
       <c r="B119" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C119" t="s">
         <v>431</v>
@@ -28020,7 +27789,7 @@
         <v>85</v>
       </c>
       <c r="B120" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C120" t="s">
         <v>432</v>
@@ -28043,7 +27812,7 @@
         <v>85</v>
       </c>
       <c r="B121" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C121" t="s">
         <v>433</v>
@@ -28066,7 +27835,7 @@
         <v>85</v>
       </c>
       <c r="B122" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C122" t="s">
         <v>434</v>
@@ -28089,7 +27858,7 @@
         <v>85</v>
       </c>
       <c r="B123" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C123" t="s">
         <v>435</v>
@@ -28112,7 +27881,7 @@
         <v>85</v>
       </c>
       <c r="B124" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C124" t="s">
         <v>442</v>
@@ -28135,7 +27904,7 @@
         <v>85</v>
       </c>
       <c r="B125" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C125" t="s">
         <v>443</v>
@@ -28158,7 +27927,7 @@
         <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C126" t="s">
         <v>430</v>
@@ -28181,7 +27950,7 @@
         <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C127" t="s">
         <v>436</v>
@@ -28204,7 +27973,7 @@
         <v>86</v>
       </c>
       <c r="B128" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C128" t="s">
         <v>441</v>
@@ -28227,7 +27996,7 @@
         <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C129" t="s">
         <v>428</v>
@@ -28250,7 +28019,7 @@
         <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C130" t="s">
         <v>429</v>
@@ -28273,7 +28042,7 @@
         <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C131" t="s">
         <v>438</v>
@@ -28296,7 +28065,7 @@
         <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C132" t="s">
         <v>439</v>
@@ -28319,7 +28088,7 @@
         <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C133" t="s">
         <v>440</v>
@@ -28342,7 +28111,7 @@
         <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C134" t="s">
         <v>446</v>
@@ -28365,7 +28134,7 @@
         <v>88</v>
       </c>
       <c r="B135" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C135" t="s">
         <v>447</v>
@@ -28388,7 +28157,7 @@
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C136" t="s">
         <v>448</v>
@@ -28411,7 +28180,7 @@
         <v>88</v>
       </c>
       <c r="B137" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C137" t="s">
         <v>453</v>
@@ -28434,7 +28203,7 @@
         <v>88</v>
       </c>
       <c r="B138" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C138" t="s">
         <v>455</v>
@@ -28457,7 +28226,7 @@
         <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C139" t="s">
         <v>456</v>
@@ -28480,7 +28249,7 @@
         <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C140" t="s">
         <v>457</v>
@@ -28503,7 +28272,7 @@
         <v>88</v>
       </c>
       <c r="B141" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C141" t="s">
         <v>458</v>
@@ -28526,7 +28295,7 @@
         <v>89</v>
       </c>
       <c r="B142" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C142" t="s">
         <v>452</v>
@@ -28549,7 +28318,7 @@
         <v>89</v>
       </c>
       <c r="B143" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C143" t="s">
         <v>569</v>
@@ -28572,7 +28341,7 @@
         <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C144" t="s">
         <v>450</v>
@@ -28595,7 +28364,7 @@
         <v>90</v>
       </c>
       <c r="B145" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C145" t="s">
         <v>451</v>
@@ -28618,7 +28387,7 @@
         <v>91</v>
       </c>
       <c r="B146" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C146" t="s">
         <v>460</v>
@@ -28641,7 +28410,7 @@
         <v>91</v>
       </c>
       <c r="B147" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C147" t="s">
         <v>470</v>
@@ -28664,7 +28433,7 @@
         <v>91</v>
       </c>
       <c r="B148" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C148" t="s">
         <v>477</v>
@@ -28687,7 +28456,7 @@
         <v>91</v>
       </c>
       <c r="B149" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C149" t="s">
         <v>493</v>
@@ -28710,7 +28479,7 @@
         <v>91</v>
       </c>
       <c r="B150" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C150" t="s">
         <v>495</v>
@@ -28733,7 +28502,7 @@
         <v>91</v>
       </c>
       <c r="B151" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C151" t="s">
         <v>496</v>
@@ -28756,7 +28525,7 @@
         <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C152" t="s">
         <v>502</v>
@@ -28779,7 +28548,7 @@
         <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C153" t="s">
         <v>504</v>
@@ -28802,7 +28571,7 @@
         <v>91</v>
       </c>
       <c r="B154" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C154" t="s">
         <v>508</v>
@@ -28825,7 +28594,7 @@
         <v>91</v>
       </c>
       <c r="B155" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C155" t="s">
         <v>509</v>
@@ -28848,7 +28617,7 @@
         <v>91</v>
       </c>
       <c r="B156" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C156" t="s">
         <v>511</v>
@@ -28871,7 +28640,7 @@
         <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C157" t="s">
         <v>515</v>
@@ -28894,7 +28663,7 @@
         <v>91</v>
       </c>
       <c r="B158" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C158" t="s">
         <v>529</v>
@@ -28917,7 +28686,7 @@
         <v>91</v>
       </c>
       <c r="B159" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C159" t="s">
         <v>533</v>
@@ -28940,7 +28709,7 @@
         <v>91</v>
       </c>
       <c r="B160" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C160" t="s">
         <v>534</v>
@@ -28963,7 +28732,7 @@
         <v>92</v>
       </c>
       <c r="B161" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C161" t="s">
         <v>540</v>
@@ -28986,7 +28755,7 @@
         <v>92</v>
       </c>
       <c r="B162" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C162" t="s">
         <v>544</v>
@@ -29009,7 +28778,7 @@
         <v>92</v>
       </c>
       <c r="B163" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C163" t="s">
         <v>548</v>
@@ -29032,7 +28801,7 @@
         <v>93</v>
       </c>
       <c r="B164" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C164" t="s">
         <v>542</v>
@@ -29055,7 +28824,7 @@
         <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C165" t="s">
         <v>551</v>
@@ -29078,7 +28847,7 @@
         <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C166" t="s">
         <v>413</v>
@@ -29101,7 +28870,7 @@
         <v>94</v>
       </c>
       <c r="B167" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C167" t="s">
         <v>546</v>
@@ -29124,7 +28893,7 @@
         <v>95</v>
       </c>
       <c r="B168" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C168" t="s">
         <v>556</v>
@@ -29147,7 +28916,7 @@
         <v>95</v>
       </c>
       <c r="B169" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C169" t="s">
         <v>557</v>
@@ -29170,7 +28939,7 @@
         <v>95</v>
       </c>
       <c r="B170" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C170" t="s">
         <v>558</v>
@@ -29193,7 +28962,7 @@
         <v>95</v>
       </c>
       <c r="B171" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C171" t="s">
         <v>559</v>
@@ -29216,7 +28985,7 @@
         <v>95</v>
       </c>
       <c r="B172" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C172" t="s">
         <v>560</v>
@@ -29239,7 +29008,7 @@
         <v>95</v>
       </c>
       <c r="B173" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C173" t="s">
         <v>561</v>
@@ -29262,7 +29031,7 @@
         <v>95</v>
       </c>
       <c r="B174" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C174" t="s">
         <v>562</v>
@@ -29285,7 +29054,7 @@
         <v>95</v>
       </c>
       <c r="B175" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C175" t="s">
         <v>564</v>
@@ -29308,7 +29077,7 @@
         <v>96</v>
       </c>
       <c r="B176" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C176" t="s">
         <v>553</v>
@@ -29331,7 +29100,7 @@
         <v>96</v>
       </c>
       <c r="B177" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C177" t="s">
         <v>554</v>
@@ -29354,7 +29123,7 @@
         <v>96</v>
       </c>
       <c r="B178" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C178" t="s">
         <v>555</v>
@@ -29377,7 +29146,7 @@
         <v>96</v>
       </c>
       <c r="B179" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C179" t="s">
         <v>563</v>
@@ -29400,7 +29169,7 @@
         <v>96</v>
       </c>
       <c r="B180" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C180" t="s">
         <v>565</v>
@@ -29423,7 +29192,7 @@
         <v>96</v>
       </c>
       <c r="B181" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C181" t="s">
         <v>566</v>
@@ -29446,7 +29215,7 @@
         <v>97</v>
       </c>
       <c r="B182" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C182" t="s">
         <v>567</v>
@@ -29469,7 +29238,7 @@
         <v>97</v>
       </c>
       <c r="B183" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C183" t="s">
         <v>568</v>
@@ -29492,7 +29261,7 @@
         <v>98</v>
       </c>
       <c r="B184" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C184" t="s">
         <v>570</v>
@@ -29515,7 +29284,7 @@
         <v>98</v>
       </c>
       <c r="B185" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C185" t="s">
         <v>571</v>
@@ -29538,7 +29307,7 @@
         <v>98</v>
       </c>
       <c r="B186" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C186" t="s">
         <v>572</v>
@@ -29561,7 +29330,7 @@
         <v>98</v>
       </c>
       <c r="B187" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C187" t="s">
         <v>573</v>
@@ -29584,7 +29353,7 @@
         <v>98</v>
       </c>
       <c r="B188" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C188" t="s">
         <v>574</v>
@@ -29607,7 +29376,7 @@
         <v>98</v>
       </c>
       <c r="B189" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C189" t="s">
         <v>575</v>
@@ -29630,7 +29399,7 @@
         <v>98</v>
       </c>
       <c r="B190" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C190" t="s">
         <v>576</v>
@@ -29653,7 +29422,7 @@
         <v>98</v>
       </c>
       <c r="B191" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C191" t="s">
         <v>577</v>
@@ -29676,7 +29445,7 @@
         <v>98</v>
       </c>
       <c r="B192" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C192" t="s">
         <v>579</v>
@@ -29699,7 +29468,7 @@
         <v>98</v>
       </c>
       <c r="B193" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C193" t="s">
         <v>580</v>
@@ -29722,7 +29491,7 @@
         <v>98</v>
       </c>
       <c r="B194" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C194" t="s">
         <v>581</v>
@@ -29745,7 +29514,7 @@
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C195" t="s">
         <v>582</v>
@@ -29768,7 +29537,7 @@
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C196" t="s">
         <v>583</v>
@@ -29791,7 +29560,7 @@
         <v>99</v>
       </c>
       <c r="B197" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C197" t="s">
         <v>586</v>
@@ -29814,7 +29583,7 @@
         <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C198" t="s">
         <v>588</v>
@@ -29837,7 +29606,7 @@
         <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C199" t="s">
         <v>589</v>
@@ -29860,7 +29629,7 @@
         <v>99</v>
       </c>
       <c r="B200" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C200" t="s">
         <v>590</v>
@@ -29883,7 +29652,7 @@
         <v>99</v>
       </c>
       <c r="B201" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C201" t="s">
         <v>591</v>
@@ -29906,7 +29675,7 @@
         <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C202" t="s">
         <v>592</v>
@@ -29929,7 +29698,7 @@
         <v>99</v>
       </c>
       <c r="B203" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C203" t="s">
         <v>594</v>
@@ -29952,7 +29721,7 @@
         <v>99</v>
       </c>
       <c r="B204" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C204" t="s">
         <v>595</v>
@@ -29975,7 +29744,7 @@
         <v>99</v>
       </c>
       <c r="B205" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C205" t="s">
         <v>597</v>
@@ -29998,7 +29767,7 @@
         <v>99</v>
       </c>
       <c r="B206" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C206" t="s">
         <v>598</v>
@@ -30021,7 +29790,7 @@
         <v>99</v>
       </c>
       <c r="B207" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C207" t="s">
         <v>599</v>
@@ -30044,7 +29813,7 @@
         <v>99</v>
       </c>
       <c r="B208" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C208" t="s">
         <v>600</v>
@@ -30067,7 +29836,7 @@
         <v>99</v>
       </c>
       <c r="B209" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C209" t="s">
         <v>601</v>
@@ -30090,7 +29859,7 @@
         <v>99</v>
       </c>
       <c r="B210" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C210" t="s">
         <v>602</v>
@@ -30113,7 +29882,7 @@
         <v>99</v>
       </c>
       <c r="B211" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C211" t="s">
         <v>603</v>
@@ -30136,7 +29905,7 @@
         <v>99</v>
       </c>
       <c r="B212" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C212" t="s">
         <v>604</v>
@@ -30159,7 +29928,7 @@
         <v>99</v>
       </c>
       <c r="B213" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C213" t="s">
         <v>605</v>
@@ -30182,7 +29951,7 @@
         <v>99</v>
       </c>
       <c r="B214" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C214" t="s">
         <v>606</v>
@@ -30205,7 +29974,7 @@
         <v>99</v>
       </c>
       <c r="B215" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C215" t="s">
         <v>608</v>
@@ -30228,7 +29997,7 @@
         <v>99</v>
       </c>
       <c r="B216" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C216" t="s">
         <v>609</v>
@@ -30251,7 +30020,7 @@
         <v>99</v>
       </c>
       <c r="B217" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C217" t="s">
         <v>610</v>
@@ -30274,7 +30043,7 @@
         <v>99</v>
       </c>
       <c r="B218" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C218" t="s">
         <v>611</v>
@@ -30297,7 +30066,7 @@
         <v>100</v>
       </c>
       <c r="B219" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C219" t="s">
         <v>587</v>
@@ -30320,7 +30089,7 @@
         <v>100</v>
       </c>
       <c r="B220" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C220" t="s">
         <v>593</v>
@@ -30343,7 +30112,7 @@
         <v>100</v>
       </c>
       <c r="B221" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C221" t="s">
         <v>607</v>
@@ -30366,7 +30135,7 @@
         <v>101</v>
       </c>
       <c r="B222" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C222" t="s">
         <v>612</v>
@@ -30389,7 +30158,7 @@
         <v>101</v>
       </c>
       <c r="B223" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C223" t="s">
         <v>614</v>
@@ -30412,7 +30181,7 @@
         <v>101</v>
       </c>
       <c r="B224" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C224" t="s">
         <v>616</v>
@@ -30435,7 +30204,7 @@
         <v>101</v>
       </c>
       <c r="B225" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C225" t="s">
         <v>618</v>
@@ -30458,7 +30227,7 @@
         <v>101</v>
       </c>
       <c r="B226" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C226" t="s">
         <v>619</v>
@@ -30481,7 +30250,7 @@
         <v>101</v>
       </c>
       <c r="B227" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C227" t="s">
         <v>621</v>
@@ -30504,7 +30273,7 @@
         <v>101</v>
       </c>
       <c r="B228" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C228" t="s">
         <v>623</v>
@@ -30527,7 +30296,7 @@
         <v>101</v>
       </c>
       <c r="B229" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C229" t="s">
         <v>624</v>
@@ -30550,7 +30319,7 @@
         <v>101</v>
       </c>
       <c r="B230" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C230" t="s">
         <v>625</v>
@@ -30573,7 +30342,7 @@
         <v>101</v>
       </c>
       <c r="B231" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C231" t="s">
         <v>626</v>
@@ -30596,7 +30365,7 @@
         <v>101</v>
       </c>
       <c r="B232" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C232" t="s">
         <v>628</v>
@@ -30619,7 +30388,7 @@
         <v>101</v>
       </c>
       <c r="B233" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C233" t="s">
         <v>629</v>
@@ -30642,7 +30411,7 @@
         <v>101</v>
       </c>
       <c r="B234" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C234" t="s">
         <v>630</v>
@@ -30665,7 +30434,7 @@
         <v>101</v>
       </c>
       <c r="B235" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C235" t="s">
         <v>631</v>
@@ -30688,7 +30457,7 @@
         <v>101</v>
       </c>
       <c r="B236" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C236" t="s">
         <v>632</v>
@@ -30711,7 +30480,7 @@
         <v>101</v>
       </c>
       <c r="B237" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C237" t="s">
         <v>633</v>
@@ -30734,7 +30503,7 @@
         <v>101</v>
       </c>
       <c r="B238" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C238" t="s">
         <v>634</v>
@@ -30757,7 +30526,7 @@
         <v>101</v>
       </c>
       <c r="B239" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C239" t="s">
         <v>637</v>
@@ -30780,7 +30549,7 @@
         <v>101</v>
       </c>
       <c r="B240" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C240" t="s">
         <v>639</v>
@@ -30803,7 +30572,7 @@
         <v>101</v>
       </c>
       <c r="B241" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C241" t="s">
         <v>689</v>
@@ -30826,7 +30595,7 @@
         <v>101</v>
       </c>
       <c r="B242" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C242" t="s">
         <v>690</v>
@@ -30849,7 +30618,7 @@
         <v>101</v>
       </c>
       <c r="B243" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C243" t="s">
         <v>692</v>
@@ -30872,7 +30641,7 @@
         <v>101</v>
       </c>
       <c r="B244" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C244" t="s">
         <v>693</v>
@@ -30895,7 +30664,7 @@
         <v>101</v>
       </c>
       <c r="B245" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C245" t="s">
         <v>694</v>
@@ -30918,7 +30687,7 @@
         <v>101</v>
       </c>
       <c r="B246" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C246" t="s">
         <v>696</v>
@@ -30941,7 +30710,7 @@
         <v>101</v>
       </c>
       <c r="B247" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C247" t="s">
         <v>698</v>
@@ -30964,7 +30733,7 @@
         <v>101</v>
       </c>
       <c r="B248" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C248" t="s">
         <v>699</v>
@@ -30987,7 +30756,7 @@
         <v>101</v>
       </c>
       <c r="B249" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C249" t="s">
         <v>700</v>
@@ -31010,7 +30779,7 @@
         <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C250" t="s">
         <v>702</v>
@@ -31033,7 +30802,7 @@
         <v>101</v>
       </c>
       <c r="B251" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C251" t="s">
         <v>708</v>
@@ -31056,7 +30825,7 @@
         <v>101</v>
       </c>
       <c r="B252" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C252" t="s">
         <v>709</v>
@@ -31079,7 +30848,7 @@
         <v>101</v>
       </c>
       <c r="B253" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C253" t="s">
         <v>711</v>
@@ -31102,7 +30871,7 @@
         <v>101</v>
       </c>
       <c r="B254" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C254" t="s">
         <v>715</v>
@@ -31125,7 +30894,7 @@
         <v>101</v>
       </c>
       <c r="B255" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C255" t="s">
         <v>716</v>
@@ -31148,7 +30917,7 @@
         <v>101</v>
       </c>
       <c r="B256" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C256" t="s">
         <v>717</v>
@@ -31171,7 +30940,7 @@
         <v>101</v>
       </c>
       <c r="B257" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C257" t="s">
         <v>718</v>
@@ -31194,7 +30963,7 @@
         <v>101</v>
       </c>
       <c r="B258" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C258" t="s">
         <v>719</v>
@@ -31217,7 +30986,7 @@
         <v>101</v>
       </c>
       <c r="B259" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C259" t="s">
         <v>720</v>
@@ -31240,7 +31009,7 @@
         <v>101</v>
       </c>
       <c r="B260" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C260" t="s">
         <v>721</v>
@@ -31263,7 +31032,7 @@
         <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C261" t="s">
         <v>635</v>
@@ -31286,7 +31055,7 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="C262" t="s">
         <v>636</v>
@@ -31309,7 +31078,7 @@
         <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C263" t="s">
         <v>640</v>
@@ -31332,7 +31101,7 @@
         <v>103</v>
       </c>
       <c r="B264" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C264" t="s">
         <v>641</v>
@@ -31355,7 +31124,7 @@
         <v>103</v>
       </c>
       <c r="B265" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C265" t="s">
         <v>642</v>
@@ -31378,7 +31147,7 @@
         <v>103</v>
       </c>
       <c r="B266" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C266" t="s">
         <v>643</v>
@@ -31401,7 +31170,7 @@
         <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="C267" t="s">
         <v>646</v>
@@ -31424,7 +31193,7 @@
         <v>104</v>
       </c>
       <c r="B268" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="C268" t="s">
         <v>648</v>
@@ -31447,7 +31216,7 @@
         <v>105</v>
       </c>
       <c r="B269" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C269" t="s">
         <v>654</v>
@@ -31470,7 +31239,7 @@
         <v>105</v>
       </c>
       <c r="B270" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C270" t="s">
         <v>655</v>
@@ -31493,7 +31262,7 @@
         <v>106</v>
       </c>
       <c r="B271" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C271" t="s">
         <v>650</v>
@@ -31516,7 +31285,7 @@
         <v>106</v>
       </c>
       <c r="B272" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="C272" t="s">
         <v>653</v>
@@ -31539,7 +31308,7 @@
         <v>107</v>
       </c>
       <c r="B273" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="C273" t="s">
         <v>664</v>
@@ -31562,7 +31331,7 @@
         <v>107</v>
       </c>
       <c r="B274" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="C274" t="s">
         <v>665</v>
@@ -31585,7 +31354,7 @@
         <v>108</v>
       </c>
       <c r="B275" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="C275" t="s">
         <v>672</v>
@@ -31608,7 +31377,7 @@
         <v>108</v>
       </c>
       <c r="B276" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="C276" t="s">
         <v>673</v>
@@ -31631,7 +31400,7 @@
         <v>109</v>
       </c>
       <c r="B277" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C277" t="s">
         <v>674</v>
@@ -31654,7 +31423,7 @@
         <v>109</v>
       </c>
       <c r="B278" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C278" t="s">
         <v>675</v>
@@ -31677,7 +31446,7 @@
         <v>109</v>
       </c>
       <c r="B279" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C279" t="s">
         <v>681</v>
@@ -31700,7 +31469,7 @@
         <v>109</v>
       </c>
       <c r="B280" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C280" t="s">
         <v>757</v>
@@ -31723,7 +31492,7 @@
         <v>109</v>
       </c>
       <c r="B281" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C281" t="s">
         <v>760</v>
@@ -31746,7 +31515,7 @@
         <v>110</v>
       </c>
       <c r="B282" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C282" t="s">
         <v>679</v>
@@ -31769,7 +31538,7 @@
         <v>110</v>
       </c>
       <c r="B283" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C283" t="s">
         <v>680</v>
@@ -31792,7 +31561,7 @@
         <v>111</v>
       </c>
       <c r="B284" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C284" t="s">
         <v>677</v>
@@ -31815,7 +31584,7 @@
         <v>112</v>
       </c>
       <c r="B285" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="C285" t="s">
         <v>678</v>
@@ -31838,7 +31607,7 @@
         <v>113</v>
       </c>
       <c r="B286" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C286" t="s">
         <v>683</v>
@@ -31861,7 +31630,7 @@
         <v>113</v>
       </c>
       <c r="B287" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C287" t="s">
         <v>684</v>
@@ -31884,7 +31653,7 @@
         <v>113</v>
       </c>
       <c r="B288" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C288" t="s">
         <v>685</v>
@@ -31907,7 +31676,7 @@
         <v>113</v>
       </c>
       <c r="B289" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C289" t="s">
         <v>686</v>
@@ -31930,7 +31699,7 @@
         <v>113</v>
       </c>
       <c r="B290" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C290" t="s">
         <v>687</v>
@@ -31953,7 +31722,7 @@
         <v>113</v>
       </c>
       <c r="B291" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C291" t="s">
         <v>691</v>
@@ -31976,7 +31745,7 @@
         <v>113</v>
       </c>
       <c r="B292" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C292" t="s">
         <v>695</v>
@@ -31999,7 +31768,7 @@
         <v>113</v>
       </c>
       <c r="B293" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C293" t="s">
         <v>697</v>
@@ -32022,7 +31791,7 @@
         <v>113</v>
       </c>
       <c r="B294" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C294" t="s">
         <v>701</v>
@@ -32045,7 +31814,7 @@
         <v>113</v>
       </c>
       <c r="B295" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C295" t="s">
         <v>703</v>
@@ -32068,7 +31837,7 @@
         <v>113</v>
       </c>
       <c r="B296" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C296" t="s">
         <v>704</v>
@@ -32091,7 +31860,7 @@
         <v>113</v>
       </c>
       <c r="B297" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C297" t="s">
         <v>705</v>
@@ -32114,7 +31883,7 @@
         <v>113</v>
       </c>
       <c r="B298" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C298" t="s">
         <v>706</v>
@@ -32137,7 +31906,7 @@
         <v>113</v>
       </c>
       <c r="B299" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C299" t="s">
         <v>707</v>
@@ -32160,7 +31929,7 @@
         <v>113</v>
       </c>
       <c r="B300" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C300" t="s">
         <v>710</v>
@@ -32183,7 +31952,7 @@
         <v>113</v>
       </c>
       <c r="B301" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C301" t="s">
         <v>712</v>
@@ -32206,7 +31975,7 @@
         <v>113</v>
       </c>
       <c r="B302" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C302" t="s">
         <v>713</v>
@@ -32229,7 +31998,7 @@
         <v>113</v>
       </c>
       <c r="B303" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C303" t="s">
         <v>714</v>
@@ -32252,7 +32021,7 @@
         <v>113</v>
       </c>
       <c r="B304" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C304" t="s">
         <v>722</v>
@@ -32275,7 +32044,7 @@
         <v>114</v>
       </c>
       <c r="B305" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C305" t="s">
         <v>724</v>
@@ -32298,7 +32067,7 @@
         <v>114</v>
       </c>
       <c r="B306" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C306" t="s">
         <v>729</v>
@@ -32321,7 +32090,7 @@
         <v>114</v>
       </c>
       <c r="B307" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C307" t="s">
         <v>746</v>
@@ -32344,7 +32113,7 @@
         <v>114</v>
       </c>
       <c r="B308" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C308" t="s">
         <v>751</v>
@@ -32367,7 +32136,7 @@
         <v>114</v>
       </c>
       <c r="B309" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C309" t="s">
         <v>770</v>
@@ -32390,7 +32159,7 @@
         <v>115</v>
       </c>
       <c r="B310" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C310" t="s">
         <v>728</v>
@@ -32413,7 +32182,7 @@
         <v>115</v>
       </c>
       <c r="B311" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C311" t="s">
         <v>732</v>
@@ -32436,7 +32205,7 @@
         <v>115</v>
       </c>
       <c r="B312" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C312" t="s">
         <v>738</v>
@@ -32459,7 +32228,7 @@
         <v>115</v>
       </c>
       <c r="B313" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C313" t="s">
         <v>744</v>
@@ -32482,7 +32251,7 @@
         <v>115</v>
       </c>
       <c r="B314" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C314" t="s">
         <v>747</v>
@@ -32505,7 +32274,7 @@
         <v>115</v>
       </c>
       <c r="B315" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C315" t="s">
         <v>762</v>
@@ -32528,7 +32297,7 @@
         <v>115</v>
       </c>
       <c r="B316" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C316" t="s">
         <v>767</v>
@@ -32551,7 +32320,7 @@
         <v>116</v>
       </c>
       <c r="B317" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C317" t="s">
         <v>731</v>
@@ -32574,7 +32343,7 @@
         <v>116</v>
       </c>
       <c r="B318" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C318" t="s">
         <v>734</v>
@@ -32597,7 +32366,7 @@
         <v>116</v>
       </c>
       <c r="B319" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C319" t="s">
         <v>758</v>
@@ -32620,7 +32389,7 @@
         <v>116</v>
       </c>
       <c r="B320" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C320" t="s">
         <v>759</v>
@@ -32643,7 +32412,7 @@
         <v>116</v>
       </c>
       <c r="B321" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C321" t="s">
         <v>766</v>
@@ -32666,7 +32435,7 @@
         <v>117</v>
       </c>
       <c r="B322" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C322" t="s">
         <v>726</v>
@@ -32689,7 +32458,7 @@
         <v>117</v>
       </c>
       <c r="B323" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C323" t="s">
         <v>730</v>
@@ -32712,7 +32481,7 @@
         <v>117</v>
       </c>
       <c r="B324" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C324" t="s">
         <v>740</v>
@@ -32735,7 +32504,7 @@
         <v>117</v>
       </c>
       <c r="B325" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C325" t="s">
         <v>741</v>
@@ -32758,7 +32527,7 @@
         <v>117</v>
       </c>
       <c r="B326" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C326" t="s">
         <v>743</v>
@@ -32781,7 +32550,7 @@
         <v>117</v>
       </c>
       <c r="B327" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C327" t="s">
         <v>748</v>
@@ -32804,7 +32573,7 @@
         <v>117</v>
       </c>
       <c r="B328" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C328" t="s">
         <v>749</v>
@@ -32827,7 +32596,7 @@
         <v>117</v>
       </c>
       <c r="B329" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C329" t="s">
         <v>753</v>
@@ -32850,7 +32619,7 @@
         <v>117</v>
       </c>
       <c r="B330" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C330" t="s">
         <v>755</v>
@@ -32873,7 +32642,7 @@
         <v>117</v>
       </c>
       <c r="B331" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C331" t="s">
         <v>761</v>
@@ -32896,7 +32665,7 @@
         <v>117</v>
       </c>
       <c r="B332" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C332" t="s">
         <v>763</v>
@@ -32919,7 +32688,7 @@
         <v>117</v>
       </c>
       <c r="B333" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C333" t="s">
         <v>768</v>
@@ -32942,7 +32711,7 @@
         <v>118</v>
       </c>
       <c r="B334" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C334" t="s">
         <v>736</v>
@@ -32965,7 +32734,7 @@
         <v>118</v>
       </c>
       <c r="B335" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C335" t="s">
         <v>737</v>
@@ -32988,7 +32757,7 @@
         <v>118</v>
       </c>
       <c r="B336" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C336" t="s">
         <v>745</v>
@@ -33011,7 +32780,7 @@
         <v>118</v>
       </c>
       <c r="B337" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C337" t="s">
         <v>752</v>
@@ -33034,7 +32803,7 @@
         <v>118</v>
       </c>
       <c r="B338" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C338" t="s">
         <v>756</v>
@@ -33057,7 +32826,7 @@
         <v>118</v>
       </c>
       <c r="B339" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C339" t="s">
         <v>772</v>
@@ -33080,7 +32849,7 @@
         <v>119</v>
       </c>
       <c r="B340" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C340" t="s">
         <v>733</v>
@@ -33103,7 +32872,7 @@
         <v>119</v>
       </c>
       <c r="B341" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C341" t="s">
         <v>742</v>
@@ -33126,7 +32895,7 @@
         <v>119</v>
       </c>
       <c r="B342" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C342" t="s">
         <v>773</v>
@@ -33149,7 +32918,7 @@
         <v>120</v>
       </c>
       <c r="B343" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C343" t="s">
         <v>725</v>
@@ -33172,7 +32941,7 @@
         <v>120</v>
       </c>
       <c r="B344" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C344" t="s">
         <v>735</v>
@@ -33195,7 +32964,7 @@
         <v>120</v>
       </c>
       <c r="B345" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C345" t="s">
         <v>739</v>
@@ -33218,7 +32987,7 @@
         <v>120</v>
       </c>
       <c r="B346" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C346" t="s">
         <v>771</v>
@@ -33241,7 +33010,7 @@
         <v>121</v>
       </c>
       <c r="B347" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C347" t="s">
         <v>723</v>
@@ -33264,7 +33033,7 @@
         <v>121</v>
       </c>
       <c r="B348" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C348" t="s">
         <v>754</v>
@@ -33287,7 +33056,7 @@
         <v>121</v>
       </c>
       <c r="B349" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="C349" t="s">
         <v>765</v>
@@ -33310,7 +33079,7 @@
         <v>122</v>
       </c>
       <c r="B350" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C350" t="s">
         <v>774</v>
@@ -33333,7 +33102,7 @@
         <v>122</v>
       </c>
       <c r="B351" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C351" t="s">
         <v>775</v>
@@ -33356,7 +33125,7 @@
         <v>122</v>
       </c>
       <c r="B352" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C352" t="s">
         <v>776</v>
@@ -33379,7 +33148,7 @@
         <v>122</v>
       </c>
       <c r="B353" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C353" t="s">
         <v>777</v>
@@ -33402,7 +33171,7 @@
         <v>122</v>
       </c>
       <c r="B354" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="C354" t="s">
         <v>778</v>
@@ -33422,16 +33191,16 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B355" t="s">
-        <v>1329</v>
+        <v>1294</v>
       </c>
       <c r="C355" t="s">
-        <v>780</v>
+        <v>405</v>
       </c>
       <c r="D355" t="s">
-        <v>1018</v>
+        <v>848</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -33445,16 +33214,16 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B356" t="s">
-        <v>1329</v>
+        <v>1294</v>
       </c>
       <c r="C356" t="s">
-        <v>781</v>
+        <v>406</v>
       </c>
       <c r="D356" t="s">
-        <v>1217</v>
+        <v>849</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -33468,16 +33237,16 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B357" t="s">
-        <v>1329</v>
+        <v>1294</v>
       </c>
       <c r="C357" t="s">
-        <v>782</v>
+        <v>421</v>
       </c>
       <c r="D357" t="s">
-        <v>1218</v>
+        <v>864</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -33491,16 +33260,16 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B358" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="C358" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="D358" t="s">
-        <v>848</v>
+        <v>904</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -33514,16 +33283,16 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B359" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="C359" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="D359" t="s">
-        <v>849</v>
+        <v>908</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -33537,16 +33306,16 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B360" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="C360" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="D360" t="s">
-        <v>864</v>
+        <v>914</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -33563,13 +33332,13 @@
         <v>125</v>
       </c>
       <c r="B361" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C361" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D361" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
       <c r="E361">
         <v>1</v>
@@ -33586,13 +33355,13 @@
         <v>125</v>
       </c>
       <c r="B362" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C362" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="D362" t="s">
-        <v>908</v>
+        <v>965</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -33609,13 +33378,13 @@
         <v>125</v>
       </c>
       <c r="B363" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C363" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="D363" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -33624,21 +33393,21 @@
         <v>1</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B364" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="C364" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
       <c r="D364" t="s">
-        <v>932</v>
+        <v>1061</v>
       </c>
       <c r="E364">
         <v>1</v>
@@ -33652,16 +33421,16 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B365" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="C365" t="s">
-        <v>523</v>
+        <v>638</v>
       </c>
       <c r="D365" t="s">
-        <v>965</v>
+        <v>1079</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -33675,16 +33444,16 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B366" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="C366" t="s">
-        <v>526</v>
+        <v>341</v>
       </c>
       <c r="D366" t="s">
-        <v>968</v>
+        <v>786</v>
       </c>
       <c r="E366">
         <v>1</v>
@@ -33693,21 +33462,21 @@
         <v>1</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B367" t="s">
-        <v>1319</v>
+        <v>1285</v>
       </c>
       <c r="C367" t="s">
-        <v>620</v>
+        <v>341</v>
       </c>
       <c r="D367" t="s">
-        <v>1061</v>
+        <v>786</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -33721,16 +33490,16 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B368" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="C368" t="s">
-        <v>638</v>
+        <v>347</v>
       </c>
       <c r="D368" t="s">
-        <v>1079</v>
+        <v>792</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -33744,16 +33513,16 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B369" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="C369" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D369" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -33767,16 +33536,16 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B370" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="C370" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D370" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -33790,19 +33559,19 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="5" t="s">
-        <v>1284</v>
+        <v>128</v>
       </c>
       <c r="B371" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="C371" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D371" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371" t="b">
         <v>1</v>
@@ -33813,19 +33582,19 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="5" t="s">
-        <v>1285</v>
+        <v>128</v>
       </c>
       <c r="B372" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="C372" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D372" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F372" t="b">
         <v>1</v>
@@ -33839,7 +33608,7 @@
         <v>128</v>
       </c>
       <c r="B373" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C373" t="s">
         <v>347</v>
@@ -33859,10 +33628,10 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B374" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C374" t="s">
         <v>347</v>
@@ -33882,10 +33651,10 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B375" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C375" t="s">
         <v>347</v>
@@ -33905,10 +33674,10 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B376" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C376" t="s">
         <v>347</v>
@@ -33928,10 +33697,10 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B377" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C377" t="s">
         <v>347</v>
@@ -33951,10 +33720,10 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B378" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C378" t="s">
         <v>347</v>
@@ -33977,7 +33746,7 @@
         <v>129</v>
       </c>
       <c r="B379" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C379" t="s">
         <v>347</v>
@@ -33997,16 +33766,16 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B380" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="C380" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D380" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -34020,16 +33789,16 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B381" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="C381" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D381" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -34043,16 +33812,16 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B382" t="s">
-        <v>1330</v>
+        <v>1288</v>
       </c>
       <c r="C382" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D382" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="E382">
         <v>1</v>
@@ -34066,16 +33835,16 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B383" t="s">
-        <v>1330</v>
+        <v>1288</v>
       </c>
       <c r="C383" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D383" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -34089,16 +33858,16 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B384" t="s">
-        <v>1330</v>
+        <v>1289</v>
       </c>
       <c r="C384" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="D384" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -34112,16 +33881,16 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B385" t="s">
-        <v>1331</v>
+        <v>1289</v>
       </c>
       <c r="C385" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D385" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -34135,16 +33904,16 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B386" t="s">
-        <v>1331</v>
+        <v>1289</v>
       </c>
       <c r="C386" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D386" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -34158,19 +33927,19 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="5" t="s">
-        <v>1286</v>
+        <v>132</v>
       </c>
       <c r="B387" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="C387" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D387" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F387" t="b">
         <v>1</v>
@@ -34181,16 +33950,16 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="5" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B388" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C388" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D388" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -34204,16 +33973,16 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B389" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C389" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="D389" t="s">
-        <v>812</v>
+        <v>852</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -34227,16 +33996,16 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B390" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C390" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="D390" t="s">
-        <v>812</v>
+        <v>852</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -34250,16 +34019,16 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B391" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C391" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="D391" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="E391">
         <v>1</v>
@@ -34273,16 +34042,16 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B392" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C392" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="D392" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -34296,16 +34065,16 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B393" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C393" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="D393" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="E393">
         <v>1</v>
@@ -34319,16 +34088,16 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B394" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C394" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="D394" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="E394">
         <v>1</v>
@@ -34342,16 +34111,16 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B395" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="C395" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D395" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="E395">
         <v>1</v>
@@ -34365,16 +34134,16 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B396" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="C396" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D396" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="E396">
         <v>1</v>
@@ -34383,21 +34152,21 @@
         <v>1</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B397" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="C397" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D397" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="E397">
         <v>1</v>
@@ -34406,21 +34175,21 @@
         <v>1</v>
       </c>
       <c r="G397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B398" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C398" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D398" t="s">
-        <v>853</v>
+        <v>985</v>
       </c>
       <c r="E398">
         <v>1</v>
@@ -34434,16 +34203,16 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B399" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C399" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D399" t="s">
-        <v>853</v>
+        <v>985</v>
       </c>
       <c r="E399">
         <v>1</v>
@@ -34457,16 +34226,16 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B400" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C400" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D400" t="s">
-        <v>853</v>
+        <v>985</v>
       </c>
       <c r="E400">
         <v>1</v>
@@ -34480,16 +34249,16 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B401" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C401" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="D401" t="s">
-        <v>860</v>
+        <v>991</v>
       </c>
       <c r="E401">
         <v>1</v>
@@ -34498,21 +34267,21 @@
         <v>1</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B402" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C402" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="D402" t="s">
-        <v>860</v>
+        <v>991</v>
       </c>
       <c r="E402">
         <v>1</v>
@@ -34521,21 +34290,21 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B403" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="C403" t="s">
-        <v>424</v>
+        <v>549</v>
       </c>
       <c r="D403" t="s">
-        <v>867</v>
+        <v>991</v>
       </c>
       <c r="E403">
         <v>1</v>
@@ -34549,16 +34318,16 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B404" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="C404" t="s">
-        <v>424</v>
+        <v>549</v>
       </c>
       <c r="D404" t="s">
-        <v>867</v>
+        <v>991</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -34572,16 +34341,16 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B405" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C405" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D405" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -34595,16 +34364,16 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B406" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="C406" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D406" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -34618,16 +34387,16 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B407" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="C407" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="D407" t="s">
-        <v>985</v>
+        <v>1037</v>
       </c>
       <c r="E407">
         <v>1</v>
@@ -34641,16 +34410,16 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B408" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="C408" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="D408" t="s">
-        <v>991</v>
+        <v>1037</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -34659,21 +34428,21 @@
         <v>1</v>
       </c>
       <c r="G408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B409" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C409" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="D409" t="s">
-        <v>991</v>
+        <v>1054</v>
       </c>
       <c r="E409">
         <v>1</v>
@@ -34682,21 +34451,21 @@
         <v>1</v>
       </c>
       <c r="G409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B410" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C410" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="D410" t="s">
-        <v>991</v>
+        <v>1054</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -34705,21 +34474,21 @@
         <v>1</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B411" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C411" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="D411" t="s">
-        <v>991</v>
+        <v>1058</v>
       </c>
       <c r="E411">
         <v>1</v>
@@ -34728,21 +34497,21 @@
         <v>1</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B412" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C412" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="D412" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -34756,16 +34525,16 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B413" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C413" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="D413" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -34779,16 +34548,16 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B414" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="C414" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="D414" t="s">
-        <v>1037</v>
+        <v>1063</v>
       </c>
       <c r="E414">
         <v>1</v>
@@ -34802,16 +34571,16 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B415" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="C415" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="D415" t="s">
-        <v>1037</v>
+        <v>1063</v>
       </c>
       <c r="E415">
         <v>1</v>
@@ -34825,16 +34594,16 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B416" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="C416" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="D416" t="s">
-        <v>1054</v>
+        <v>1088</v>
       </c>
       <c r="E416">
         <v>1</v>
@@ -34848,16 +34617,16 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B417" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="C417" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="D417" t="s">
-        <v>1054</v>
+        <v>1088</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -34871,16 +34640,16 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B418" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C418" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="D418" t="s">
-        <v>1058</v>
+        <v>1103</v>
       </c>
       <c r="E418">
         <v>1</v>
@@ -34894,16 +34663,16 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B419" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C419" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="D419" t="s">
-        <v>1068</v>
+        <v>1103</v>
       </c>
       <c r="E419">
         <v>1</v>
@@ -34917,16 +34686,16 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B420" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="C420" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="D420" t="s">
-        <v>1068</v>
+        <v>1111</v>
       </c>
       <c r="E420">
         <v>1</v>
@@ -34940,16 +34709,16 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B421" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="C421" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="D421" t="s">
-        <v>1063</v>
+        <v>1111</v>
       </c>
       <c r="E421">
         <v>1</v>
@@ -34963,16 +34732,16 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B422" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="C422" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="D422" t="s">
-        <v>1063</v>
+        <v>1127</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -34986,19 +34755,19 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="5" t="s">
-        <v>1287</v>
+        <v>146</v>
       </c>
       <c r="B423" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="C423" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="D423" t="s">
-        <v>1063</v>
+        <v>1127</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F423" t="b">
         <v>1</v>
@@ -35009,19 +34778,19 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="5" t="s">
-        <v>1287</v>
+        <v>147</v>
       </c>
       <c r="B424" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="C424" t="s">
-        <v>622</v>
+        <v>727</v>
       </c>
       <c r="D424" t="s">
-        <v>1063</v>
+        <v>1166</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424" t="b">
         <v>1</v>
@@ -35032,16 +34801,16 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B425" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="C425" t="s">
-        <v>647</v>
+        <v>750</v>
       </c>
       <c r="D425" t="s">
-        <v>1088</v>
+        <v>1188</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -35055,16 +34824,16 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B426" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="C426" t="s">
-        <v>647</v>
+        <v>750</v>
       </c>
       <c r="D426" t="s">
-        <v>1088</v>
+        <v>1188</v>
       </c>
       <c r="E426">
         <v>1</v>
@@ -35078,19 +34847,19 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="5" t="s">
-        <v>1288</v>
+        <v>148</v>
       </c>
       <c r="B427" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="C427" t="s">
-        <v>656</v>
+        <v>769</v>
       </c>
       <c r="D427" t="s">
-        <v>1096</v>
+        <v>1206</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F427" t="b">
         <v>1</v>
@@ -35101,16 +34870,16 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="5" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B428" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="C428" t="s">
-        <v>656</v>
+        <v>769</v>
       </c>
       <c r="D428" t="s">
-        <v>1096</v>
+        <v>1206</v>
       </c>
       <c r="E428">
         <v>1</v>
@@ -35124,19 +34893,19 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="5" t="s">
-        <v>1288</v>
+        <v>148</v>
       </c>
       <c r="B429" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="C429" t="s">
-        <v>658</v>
+        <v>769</v>
       </c>
       <c r="D429" t="s">
-        <v>1098</v>
+        <v>1206</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429" t="b">
         <v>1</v>
@@ -35147,16 +34916,16 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="5" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B430" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C430" t="s">
-        <v>658</v>
+        <v>779</v>
       </c>
       <c r="D430" t="s">
-        <v>1098</v>
+        <v>1216</v>
       </c>
       <c r="E430">
         <v>1</v>
@@ -35170,19 +34939,19 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="5" t="s">
-        <v>1289</v>
+        <v>149</v>
       </c>
       <c r="B431" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C431" t="s">
-        <v>658</v>
+        <v>779</v>
       </c>
       <c r="D431" t="s">
-        <v>1098</v>
+        <v>1216</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F431" t="b">
         <v>1</v>
@@ -35193,16 +34962,16 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B432" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="C432" t="s">
-        <v>663</v>
+        <v>346</v>
       </c>
       <c r="D432" t="s">
-        <v>1103</v>
+        <v>791</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -35216,16 +34985,16 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B433" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="C433" t="s">
-        <v>663</v>
+        <v>349</v>
       </c>
       <c r="D433" t="s">
-        <v>1103</v>
+        <v>794</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -35239,19 +35008,19 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="5" t="s">
-        <v>1290</v>
+        <v>152</v>
       </c>
       <c r="B434" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
       <c r="C434" t="s">
-        <v>663</v>
+        <v>350</v>
       </c>
       <c r="D434" t="s">
-        <v>1103</v>
+        <v>795</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F434" t="b">
         <v>1</v>
@@ -35262,19 +35031,19 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="5" t="s">
-        <v>1290</v>
+        <v>153</v>
       </c>
       <c r="B435" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
       <c r="C435" t="s">
-        <v>663</v>
+        <v>359</v>
       </c>
       <c r="D435" t="s">
-        <v>1103</v>
+        <v>804</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F435" t="b">
         <v>1</v>
@@ -35285,16 +35054,16 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B436" t="s">
-        <v>1325</v>
+        <v>1289</v>
       </c>
       <c r="C436" t="s">
-        <v>671</v>
+        <v>371</v>
       </c>
       <c r="D436" t="s">
-        <v>1111</v>
+        <v>816</v>
       </c>
       <c r="E436">
         <v>1</v>
@@ -35303,21 +35072,21 @@
         <v>1</v>
       </c>
       <c r="G436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B437" t="s">
-        <v>1325</v>
+        <v>1289</v>
       </c>
       <c r="C437" t="s">
-        <v>671</v>
+        <v>373</v>
       </c>
       <c r="D437" t="s">
-        <v>1111</v>
+        <v>818</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -35331,16 +35100,16 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B438" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="C438" t="s">
-        <v>688</v>
+        <v>378</v>
       </c>
       <c r="D438" t="s">
-        <v>1127</v>
+        <v>811</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -35354,16 +35123,16 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B439" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="C439" t="s">
-        <v>688</v>
+        <v>380</v>
       </c>
       <c r="D439" t="s">
-        <v>1127</v>
+        <v>824</v>
       </c>
       <c r="E439">
         <v>1</v>
@@ -35372,21 +35141,21 @@
         <v>1</v>
       </c>
       <c r="G439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B440" t="s">
-        <v>1327</v>
+        <v>1290</v>
       </c>
       <c r="C440" t="s">
-        <v>727</v>
+        <v>381</v>
       </c>
       <c r="D440" t="s">
-        <v>1166</v>
+        <v>825</v>
       </c>
       <c r="E440">
         <v>1</v>
@@ -35395,21 +35164,21 @@
         <v>1</v>
       </c>
       <c r="G440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B441" t="s">
-        <v>1327</v>
+        <v>1290</v>
       </c>
       <c r="C441" t="s">
-        <v>750</v>
+        <v>383</v>
       </c>
       <c r="D441" t="s">
-        <v>1188</v>
+        <v>827</v>
       </c>
       <c r="E441">
         <v>1</v>
@@ -35423,16 +35192,16 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B442" t="s">
-        <v>1327</v>
+        <v>1287</v>
       </c>
       <c r="C442" t="s">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="D442" t="s">
-        <v>1188</v>
+        <v>843</v>
       </c>
       <c r="E442">
         <v>1</v>
@@ -35446,16 +35215,16 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B443" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="C443" t="s">
-        <v>769</v>
+        <v>403</v>
       </c>
       <c r="D443" t="s">
-        <v>1206</v>
+        <v>846</v>
       </c>
       <c r="E443">
         <v>1</v>
@@ -35469,16 +35238,16 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B444" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="C444" t="s">
-        <v>769</v>
+        <v>404</v>
       </c>
       <c r="D444" t="s">
-        <v>1206</v>
+        <v>847</v>
       </c>
       <c r="E444">
         <v>1</v>
@@ -35492,16 +35261,16 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B445" t="s">
-        <v>1327</v>
+        <v>1294</v>
       </c>
       <c r="C445" t="s">
-        <v>769</v>
+        <v>407</v>
       </c>
       <c r="D445" t="s">
-        <v>1206</v>
+        <v>850</v>
       </c>
       <c r="E445">
         <v>1</v>
@@ -35515,16 +35284,16 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B446" t="s">
-        <v>1329</v>
+        <v>1294</v>
       </c>
       <c r="C446" t="s">
-        <v>779</v>
+        <v>408</v>
       </c>
       <c r="D446" t="s">
-        <v>1216</v>
+        <v>851</v>
       </c>
       <c r="E446">
         <v>1</v>
@@ -35538,16 +35307,16 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B447" t="s">
-        <v>1329</v>
+        <v>1294</v>
       </c>
       <c r="C447" t="s">
-        <v>779</v>
+        <v>415</v>
       </c>
       <c r="D447" t="s">
-        <v>1216</v>
+        <v>858</v>
       </c>
       <c r="E447">
         <v>1</v>
@@ -35556,21 +35325,21 @@
         <v>1</v>
       </c>
       <c r="G447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B448" t="s">
-        <v>1330</v>
+        <v>1294</v>
       </c>
       <c r="C448" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="D448" t="s">
-        <v>791</v>
+        <v>863</v>
       </c>
       <c r="E448">
         <v>1</v>
@@ -35584,16 +35353,16 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="5" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B449" t="s">
-        <v>1331</v>
+        <v>1295</v>
       </c>
       <c r="C449" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="D449" t="s">
-        <v>794</v>
+        <v>868</v>
       </c>
       <c r="E449">
         <v>1</v>
@@ -35607,16 +35376,16 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="5" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B450" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="C450" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="D450" t="s">
-        <v>795</v>
+        <v>869</v>
       </c>
       <c r="E450">
         <v>1</v>
@@ -35630,16 +35399,16 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B451" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="C451" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="D451" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="E451">
         <v>1</v>
@@ -35648,21 +35417,21 @@
         <v>1</v>
       </c>
       <c r="G451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B452" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="C452" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="D452" t="s">
-        <v>818</v>
+        <v>887</v>
       </c>
       <c r="E452">
         <v>1</v>
@@ -35676,16 +35445,16 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="5" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B453" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C453" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="D453" t="s">
-        <v>811</v>
+        <v>888</v>
       </c>
       <c r="E453">
         <v>1</v>
@@ -35699,16 +35468,16 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B454" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C454" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D454" t="s">
-        <v>824</v>
+        <v>892</v>
       </c>
       <c r="E454">
         <v>1</v>
@@ -35717,21 +35486,21 @@
         <v>1</v>
       </c>
       <c r="G454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B455" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C455" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="D455" t="s">
-        <v>825</v>
+        <v>897</v>
       </c>
       <c r="E455">
         <v>1</v>
@@ -35740,21 +35509,21 @@
         <v>1</v>
       </c>
       <c r="G455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B456" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="C456" t="s">
-        <v>383</v>
+        <v>539</v>
       </c>
       <c r="D456" t="s">
-        <v>827</v>
+        <v>981</v>
       </c>
       <c r="E456">
         <v>1</v>
@@ -35768,16 +35537,16 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="5" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B457" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C457" t="s">
-        <v>400</v>
+        <v>541</v>
       </c>
       <c r="D457" t="s">
-        <v>843</v>
+        <v>983</v>
       </c>
       <c r="E457">
         <v>1</v>
@@ -35791,16 +35560,16 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="5" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B458" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C458" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
       <c r="D458" t="s">
-        <v>846</v>
+        <v>987</v>
       </c>
       <c r="E458">
         <v>1</v>
@@ -35814,16 +35583,16 @@
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="5" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B459" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C459" t="s">
-        <v>404</v>
+        <v>547</v>
       </c>
       <c r="D459" t="s">
-        <v>847</v>
+        <v>989</v>
       </c>
       <c r="E459">
         <v>1</v>
@@ -35832,21 +35601,21 @@
         <v>1</v>
       </c>
       <c r="G459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:7">
       <c r="A460" s="5" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B460" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C460" t="s">
-        <v>407</v>
+        <v>550</v>
       </c>
       <c r="D460" t="s">
-        <v>850</v>
+        <v>992</v>
       </c>
       <c r="E460">
         <v>1</v>
@@ -35860,16 +35629,16 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B461" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="C461" t="s">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="D461" t="s">
-        <v>851</v>
+        <v>1019</v>
       </c>
       <c r="E461">
         <v>1</v>
@@ -35883,16 +35652,16 @@
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="5" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B462" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C462" t="s">
-        <v>415</v>
+        <v>584</v>
       </c>
       <c r="D462" t="s">
-        <v>858</v>
+        <v>1025</v>
       </c>
       <c r="E462">
         <v>1</v>
@@ -35901,21 +35670,21 @@
         <v>1</v>
       </c>
       <c r="G462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="5" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B463" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C463" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="D463" t="s">
-        <v>863</v>
+        <v>1026</v>
       </c>
       <c r="E463">
         <v>1</v>
@@ -35929,16 +35698,16 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B464" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="C464" t="s">
-        <v>425</v>
+        <v>615</v>
       </c>
       <c r="D464" t="s">
-        <v>868</v>
+        <v>1056</v>
       </c>
       <c r="E464">
         <v>1</v>
@@ -35952,16 +35721,16 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B465" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C465" t="s">
-        <v>426</v>
+        <v>644</v>
       </c>
       <c r="D465" t="s">
-        <v>869</v>
+        <v>1085</v>
       </c>
       <c r="E465">
         <v>1</v>
@@ -35975,16 +35744,16 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="5" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B466" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C466" t="s">
-        <v>427</v>
+        <v>645</v>
       </c>
       <c r="D466" t="s">
-        <v>870</v>
+        <v>1086</v>
       </c>
       <c r="E466">
         <v>1</v>
@@ -35993,21 +35762,21 @@
         <v>1</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="5" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B467" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="C467" t="s">
-        <v>444</v>
+        <v>649</v>
       </c>
       <c r="D467" t="s">
-        <v>887</v>
+        <v>1089</v>
       </c>
       <c r="E467">
         <v>1</v>
@@ -36021,16 +35790,16 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B468" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="C468" t="s">
-        <v>445</v>
+        <v>651</v>
       </c>
       <c r="D468" t="s">
-        <v>888</v>
+        <v>1091</v>
       </c>
       <c r="E468">
         <v>1</v>
@@ -36044,16 +35813,16 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B469" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="C469" t="s">
-        <v>449</v>
+        <v>652</v>
       </c>
       <c r="D469" t="s">
-        <v>892</v>
+        <v>1092</v>
       </c>
       <c r="E469">
         <v>1</v>
@@ -36067,16 +35836,16 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B470" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C470" t="s">
-        <v>454</v>
+        <v>656</v>
       </c>
       <c r="D470" t="s">
-        <v>897</v>
+        <v>1096</v>
       </c>
       <c r="E470">
         <v>1</v>
@@ -36090,16 +35859,16 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="5" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B471" t="s">
         <v>1315</v>
       </c>
       <c r="C471" t="s">
-        <v>539</v>
+        <v>657</v>
       </c>
       <c r="D471" t="s">
-        <v>981</v>
+        <v>1097</v>
       </c>
       <c r="E471">
         <v>1</v>
@@ -36113,16 +35882,16 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B472" t="s">
         <v>1315</v>
       </c>
       <c r="C472" t="s">
-        <v>541</v>
+        <v>658</v>
       </c>
       <c r="D472" t="s">
-        <v>983</v>
+        <v>1098</v>
       </c>
       <c r="E472">
         <v>1</v>
@@ -36136,16 +35905,16 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="5" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B473" t="s">
         <v>1315</v>
       </c>
       <c r="C473" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="D473" t="s">
-        <v>987</v>
+        <v>1099</v>
       </c>
       <c r="E473">
         <v>1</v>
@@ -36159,16 +35928,16 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B474" t="s">
         <v>1315</v>
       </c>
       <c r="C474" t="s">
-        <v>547</v>
+        <v>660</v>
       </c>
       <c r="D474" t="s">
-        <v>989</v>
+        <v>1100</v>
       </c>
       <c r="E474">
         <v>1</v>
@@ -36177,21 +35946,21 @@
         <v>1</v>
       </c>
       <c r="G474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="5" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B475" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="C475" t="s">
-        <v>550</v>
+        <v>661</v>
       </c>
       <c r="D475" t="s">
-        <v>992</v>
+        <v>1101</v>
       </c>
       <c r="E475">
         <v>1</v>
@@ -36205,16 +35974,16 @@
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="5" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B476" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="C476" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="D476" t="s">
-        <v>1019</v>
+        <v>1102</v>
       </c>
       <c r="E476">
         <v>1</v>
@@ -36223,21 +35992,21 @@
         <v>1</v>
       </c>
       <c r="G476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B477" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="C477" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="D477" t="s">
-        <v>1025</v>
+        <v>1106</v>
       </c>
       <c r="E477">
         <v>1</v>
@@ -36251,16 +36020,16 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B478" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="C478" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="D478" t="s">
-        <v>1026</v>
+        <v>1107</v>
       </c>
       <c r="E478">
         <v>1</v>
@@ -36274,16 +36043,16 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="5" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B479" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C479" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="D479" t="s">
-        <v>1056</v>
+        <v>1108</v>
       </c>
       <c r="E479">
         <v>1</v>
@@ -36292,21 +36061,21 @@
         <v>1</v>
       </c>
       <c r="G479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B480" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="C480" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D480" t="s">
-        <v>1085</v>
+        <v>1109</v>
       </c>
       <c r="E480">
         <v>1</v>
@@ -36320,16 +36089,16 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B481" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="C481" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D481" t="s">
-        <v>1086</v>
+        <v>1110</v>
       </c>
       <c r="E481">
         <v>1</v>
@@ -36338,21 +36107,21 @@
         <v>1</v>
       </c>
       <c r="G481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="5" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B482" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="C482" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="D482" t="s">
-        <v>1089</v>
+        <v>1116</v>
       </c>
       <c r="E482">
         <v>1</v>
@@ -36366,16 +36135,16 @@
     </row>
     <row r="483" spans="1:7">
       <c r="A483" s="5" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B483" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="C483" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D483" t="s">
-        <v>1091</v>
+        <v>1121</v>
       </c>
       <c r="E483">
         <v>1</v>
@@ -36389,16 +36158,16 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="5" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B484" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="C484" t="s">
-        <v>652</v>
+        <v>764</v>
       </c>
       <c r="D484" t="s">
-        <v>1092</v>
+        <v>1201</v>
       </c>
       <c r="E484">
         <v>1</v>
@@ -36407,21 +36176,21 @@
         <v>1</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="5" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B485" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C485" t="s">
-        <v>657</v>
+        <v>780</v>
       </c>
       <c r="D485" t="s">
-        <v>1097</v>
+        <v>1018</v>
       </c>
       <c r="E485">
         <v>1</v>
@@ -36435,19 +36204,19 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="5" t="s">
-        <v>1291</v>
+        <v>123</v>
       </c>
       <c r="B486" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C486" t="s">
-        <v>657</v>
+        <v>781</v>
       </c>
       <c r="D486" t="s">
-        <v>1097</v>
+        <v>1217</v>
       </c>
       <c r="E486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F486" t="b">
         <v>1</v>
@@ -36458,16 +36227,16 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="5" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="B487" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="C487" t="s">
-        <v>659</v>
+        <v>782</v>
       </c>
       <c r="D487" t="s">
-        <v>1099</v>
+        <v>1218</v>
       </c>
       <c r="E487">
         <v>1</v>
@@ -36477,282 +36246,6 @@
       </c>
       <c r="G487">
         <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
-      <c r="A488" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C488" t="s">
-        <v>660</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E488">
-        <v>1</v>
-      </c>
-      <c r="F488" t="b">
-        <v>1</v>
-      </c>
-      <c r="G488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
-      <c r="A489" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C489" t="s">
-        <v>661</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E489">
-        <v>1</v>
-      </c>
-      <c r="F489" t="b">
-        <v>1</v>
-      </c>
-      <c r="G489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
-      <c r="A490" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C490" t="s">
-        <v>662</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E490">
-        <v>1</v>
-      </c>
-      <c r="F490" t="b">
-        <v>1</v>
-      </c>
-      <c r="G490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
-      <c r="A491" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C491" t="s">
-        <v>666</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E491">
-        <v>1</v>
-      </c>
-      <c r="F491" t="b">
-        <v>1</v>
-      </c>
-      <c r="G491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
-      <c r="A492" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C492" t="s">
-        <v>666</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E492">
-        <v>0</v>
-      </c>
-      <c r="F492" t="b">
-        <v>1</v>
-      </c>
-      <c r="G492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
-      <c r="A493" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C493" t="s">
-        <v>667</v>
-      </c>
-      <c r="D493" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E493">
-        <v>1</v>
-      </c>
-      <c r="F493" t="b">
-        <v>1</v>
-      </c>
-      <c r="G493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
-      <c r="A494" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C494" t="s">
-        <v>668</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E494">
-        <v>1</v>
-      </c>
-      <c r="F494" t="b">
-        <v>1</v>
-      </c>
-      <c r="G494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
-      <c r="A495" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C495" t="s">
-        <v>669</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E495">
-        <v>1</v>
-      </c>
-      <c r="F495" t="b">
-        <v>1</v>
-      </c>
-      <c r="G495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
-      <c r="A496" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C496" t="s">
-        <v>670</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E496">
-        <v>1</v>
-      </c>
-      <c r="F496" t="b">
-        <v>1</v>
-      </c>
-      <c r="G496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
-      <c r="A497" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C497" t="s">
-        <v>676</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E497">
-        <v>1</v>
-      </c>
-      <c r="F497" t="b">
-        <v>1</v>
-      </c>
-      <c r="G497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
-      <c r="A498" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C498" t="s">
-        <v>682</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E498">
-        <v>1</v>
-      </c>
-      <c r="F498" t="b">
-        <v>1</v>
-      </c>
-      <c r="G498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
-      <c r="A499" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C499" t="s">
-        <v>764</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E499">
-        <v>1</v>
-      </c>
-      <c r="F499" t="b">
-        <v>1</v>
-      </c>
-      <c r="G499">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
